--- a/Document/5.SpringBacklog/Sprint3_Backlog.xlsx
+++ b/Document/5.SpringBacklog/Sprint3_Backlog.xlsx
@@ -8376,7 +8376,7 @@
   <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="U66" sqref="U66"/>
     </sheetView>

--- a/Document/5.SpringBacklog/Sprint3_Backlog.xlsx
+++ b/Document/5.SpringBacklog/Sprint3_Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Captone1\GITHUB\Captone1\Document\5.SpringBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Captone1\Document\5.SpringBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -359,11 +359,14 @@
   <si>
     <t>Design Test Case accept room rental</t>
   </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
@@ -874,7 +877,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1113,7 +1116,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-FBAE-4019-8BAD-4D5F7FC96215}"/>
             </c:ext>
@@ -1233,7 +1236,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F7C-4ADE-AC6F-518E8094899D}"/>
             </c:ext>
@@ -1248,11 +1251,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2013824463"/>
-        <c:axId val="2013820303"/>
+        <c:axId val="-1205561008"/>
+        <c:axId val="-1205555568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2013824463"/>
+        <c:axId val="-1205561008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,14 +1298,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2013820303"/>
+        <c:crossAx val="-1205555568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2013820303"/>
+        <c:axId val="-1205555568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2013824463"/>
+        <c:crossAx val="-1205561008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8375,10 +8378,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="U66" sqref="U66"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8815,7 +8818,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="36">
         <v>2</v>
@@ -9271,8 +9274,8 @@
       <c r="C10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="38">
-        <v>1</v>
+      <c r="D10" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="E10" s="25">
         <v>1</v>

--- a/Document/5.SpringBacklog/Sprint3_Backlog.xlsx
+++ b/Document/5.SpringBacklog/Sprint3_Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Captone1\Document\5.SpringBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Captone1\Document\5.SpringBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
@@ -877,7 +877,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1116,7 +1116,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-FBAE-4019-8BAD-4D5F7FC96215}"/>
             </c:ext>
@@ -1236,7 +1236,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F7C-4ADE-AC6F-518E8094899D}"/>
             </c:ext>
@@ -8379,9 +8379,9 @@
   <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
